--- a/forms/LoadedBudget1-5YrProject.xlsx
+++ b/forms/LoadedBudget1-5YrProject.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2010" windowWidth="15360" windowHeight="8775"/>
+    <workbookView xWindow="0" yWindow="2010" windowWidth="21060" windowHeight="8700"/>
   </bookViews>
   <sheets>
     <sheet name="1YearProject" sheetId="1" r:id="rId1"/>
@@ -321,7 +321,7 @@
     </r>
   </si>
   <si>
-    <t>Fringe Benefits Rate Non-Sponsored and Sponsored 07/01/2013-06/30/2014</t>
+    <t>Fringe Benefits Rate Non-Sponsored and Sponsored 07/01/2014-06/30/2015</t>
   </si>
 </sst>
 </file>
@@ -1563,7 +1563,7 @@
   <dimension ref="A1:S157"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:S21"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1603,7 +1603,7 @@
         <v>56</v>
       </c>
       <c r="S2" s="48">
-        <v>0.34100000000000003</v>
+        <v>0.34300000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
@@ -1614,7 +1614,7 @@
         <v>57</v>
       </c>
       <c r="S3" s="48">
-        <v>7.9000000000000001E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
@@ -1678,7 +1678,7 @@
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="7">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>33</v>
@@ -1695,7 +1695,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="8">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>34</v>
       </c>
       <c r="C12" s="7">
-        <v>0.34100000000000003</v>
+        <v>0.34300000000000003</v>
       </c>
       <c r="R12" s="47" t="s">
         <v>64</v>
@@ -1726,7 +1726,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="8">
-        <v>7.9000000000000001E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="R13" s="47" t="s">
         <v>65</v>
@@ -1769,7 +1769,7 @@
         <v>67</v>
       </c>
       <c r="S16" s="48">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
@@ -3604,7 +3604,7 @@
   <dimension ref="A1:S157"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3644,7 +3644,7 @@
         <v>56</v>
       </c>
       <c r="S2" s="48">
-        <v>0.34100000000000003</v>
+        <v>0.34300000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
@@ -3655,7 +3655,7 @@
         <v>57</v>
       </c>
       <c r="S3" s="48">
-        <v>7.9000000000000001E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
@@ -3719,7 +3719,7 @@
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="7">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>33</v>
@@ -3736,7 +3736,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="8">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>0</v>
@@ -3753,7 +3753,7 @@
         <v>34</v>
       </c>
       <c r="C12" s="7">
-        <v>0.34100000000000003</v>
+        <v>0.34300000000000003</v>
       </c>
       <c r="R12" s="47" t="s">
         <v>64</v>
@@ -3767,7 +3767,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="8">
-        <v>7.9000000000000001E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="R13" s="47" t="s">
         <v>65</v>
@@ -3815,7 +3815,7 @@
         <v>67</v>
       </c>
       <c r="S16" s="48">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
@@ -6060,7 +6060,7 @@
   <dimension ref="A1:Q158"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6103,7 +6103,7 @@
         <v>56</v>
       </c>
       <c r="Q2" s="48">
-        <v>0.34100000000000003</v>
+        <v>0.34300000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -6114,7 +6114,7 @@
         <v>57</v>
       </c>
       <c r="Q3" s="48">
-        <v>7.9000000000000001E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
@@ -6178,7 +6178,7 @@
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="7">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>33</v>
@@ -6195,7 +6195,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="8">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>0</v>
@@ -6212,7 +6212,7 @@
         <v>34</v>
       </c>
       <c r="C12" s="7">
-        <v>0.34100000000000003</v>
+        <v>0.34300000000000003</v>
       </c>
       <c r="P12" s="47" t="s">
         <v>64</v>
@@ -6226,7 +6226,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="8">
-        <v>7.9000000000000001E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="P13" s="47" t="s">
         <v>65</v>
@@ -6273,7 +6273,7 @@
         <v>67</v>
       </c>
       <c r="Q16" s="48">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
@@ -9087,7 +9087,7 @@
   <dimension ref="A1:Q157"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9130,7 +9130,7 @@
         <v>56</v>
       </c>
       <c r="Q2" s="48">
-        <v>0.34100000000000003</v>
+        <v>0.34300000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -9141,7 +9141,7 @@
         <v>57</v>
       </c>
       <c r="Q3" s="48">
-        <v>7.9000000000000001E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
@@ -9205,7 +9205,7 @@
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="7">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>33</v>
@@ -9222,7 +9222,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="8">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>0</v>
@@ -9239,7 +9239,7 @@
         <v>34</v>
       </c>
       <c r="C12" s="7">
-        <v>0.34100000000000003</v>
+        <v>0.34300000000000003</v>
       </c>
       <c r="P12" s="47" t="s">
         <v>64</v>
@@ -9253,7 +9253,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="8">
-        <v>7.9000000000000001E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="P13" s="47" t="s">
         <v>65</v>
@@ -9302,7 +9302,7 @@
         <v>67</v>
       </c>
       <c r="Q16" s="48">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
@@ -12410,7 +12410,7 @@
   <dimension ref="A1:R157"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12454,7 +12454,7 @@
         <v>56</v>
       </c>
       <c r="R2" s="48">
-        <v>0.34100000000000003</v>
+        <v>0.34300000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
@@ -12465,7 +12465,7 @@
         <v>57</v>
       </c>
       <c r="R3" s="48">
-        <v>7.9000000000000001E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
@@ -12529,7 +12529,7 @@
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="7">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>33</v>
@@ -12546,7 +12546,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="8">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>0</v>
@@ -12563,7 +12563,7 @@
         <v>34</v>
       </c>
       <c r="C12" s="7">
-        <v>0.34100000000000003</v>
+        <v>0.34300000000000003</v>
       </c>
       <c r="Q12" s="47" t="s">
         <v>64</v>
@@ -12577,7 +12577,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="8">
-        <v>7.9000000000000001E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="Q13" s="47" t="s">
         <v>65</v>
@@ -12628,7 +12628,7 @@
         <v>67</v>
       </c>
       <c r="R16" s="48">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">

--- a/forms/LoadedBudget1-5YrProject.xlsx
+++ b/forms/LoadedBudget1-5YrProject.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2010" windowWidth="21060" windowHeight="8700"/>
+    <workbookView xWindow="0" yWindow="2010" windowWidth="15360" windowHeight="8775"/>
   </bookViews>
   <sheets>
     <sheet name="1YearProject" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">'4YearProject'!$A$1:$O$154</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'5YearProject'!$A$1:$O$154</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -321,7 +321,7 @@
     </r>
   </si>
   <si>
-    <t>Fringe Benefits Rate Non-Sponsored and Sponsored 07/01/2014-06/30/2015</t>
+    <t>Fringe Benefits Rate Non-Sponsored and Sponsored 07/01/2015-06/30/2016</t>
   </si>
 </sst>
 </file>
@@ -1562,8 +1562,8 @@
   </sheetPr>
   <dimension ref="A1:S157"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1603,7 +1603,7 @@
         <v>56</v>
       </c>
       <c r="S2" s="48">
-        <v>0.34300000000000003</v>
+        <v>0.36299999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
@@ -1614,7 +1614,7 @@
         <v>57</v>
       </c>
       <c r="S3" s="48">
-        <v>8.5999999999999993E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
@@ -1678,7 +1678,7 @@
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="7">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>33</v>
@@ -1695,7 +1695,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="8">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>34</v>
       </c>
       <c r="C12" s="7">
-        <v>0.34300000000000003</v>
+        <v>0.36299999999999999</v>
       </c>
       <c r="R12" s="47" t="s">
         <v>64</v>
@@ -1726,7 +1726,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="8">
-        <v>8.5999999999999993E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="R13" s="47" t="s">
         <v>65</v>
@@ -1769,7 +1769,7 @@
         <v>67</v>
       </c>
       <c r="S16" s="48">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
@@ -3603,8 +3603,8 @@
   </sheetPr>
   <dimension ref="A1:S157"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3644,7 +3644,7 @@
         <v>56</v>
       </c>
       <c r="S2" s="48">
-        <v>0.34300000000000003</v>
+        <v>0.36299999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
@@ -3655,7 +3655,7 @@
         <v>57</v>
       </c>
       <c r="S3" s="48">
-        <v>8.5999999999999993E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
@@ -3719,7 +3719,7 @@
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="7">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>33</v>
@@ -3736,7 +3736,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="8">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>0</v>
@@ -3753,7 +3753,7 @@
         <v>34</v>
       </c>
       <c r="C12" s="7">
-        <v>0.34300000000000003</v>
+        <v>0.36299999999999999</v>
       </c>
       <c r="R12" s="47" t="s">
         <v>64</v>
@@ -3767,7 +3767,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="8">
-        <v>8.5999999999999993E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="R13" s="47" t="s">
         <v>65</v>
@@ -3815,7 +3815,7 @@
         <v>67</v>
       </c>
       <c r="S16" s="48">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
@@ -6059,8 +6059,8 @@
   </sheetPr>
   <dimension ref="A1:Q158"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6103,7 +6103,7 @@
         <v>56</v>
       </c>
       <c r="Q2" s="48">
-        <v>0.34300000000000003</v>
+        <v>0.36299999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -6114,7 +6114,7 @@
         <v>57</v>
       </c>
       <c r="Q3" s="48">
-        <v>8.5999999999999993E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
@@ -6178,7 +6178,7 @@
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="7">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>33</v>
@@ -6195,7 +6195,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="8">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>0</v>
@@ -6212,7 +6212,7 @@
         <v>34</v>
       </c>
       <c r="C12" s="7">
-        <v>0.34300000000000003</v>
+        <v>0.36299999999999999</v>
       </c>
       <c r="P12" s="47" t="s">
         <v>64</v>
@@ -6226,7 +6226,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="8">
-        <v>8.5999999999999993E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="P13" s="47" t="s">
         <v>65</v>
@@ -6273,7 +6273,7 @@
         <v>67</v>
       </c>
       <c r="Q16" s="48">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
@@ -9086,8 +9086,8 @@
   </sheetPr>
   <dimension ref="A1:Q157"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9130,7 +9130,7 @@
         <v>56</v>
       </c>
       <c r="Q2" s="48">
-        <v>0.34300000000000003</v>
+        <v>0.36299999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -9141,7 +9141,7 @@
         <v>57</v>
       </c>
       <c r="Q3" s="48">
-        <v>8.5999999999999993E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
@@ -9205,7 +9205,7 @@
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="7">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>33</v>
@@ -9222,7 +9222,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="8">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>0</v>
@@ -9239,7 +9239,7 @@
         <v>34</v>
       </c>
       <c r="C12" s="7">
-        <v>0.34300000000000003</v>
+        <v>0.36299999999999999</v>
       </c>
       <c r="P12" s="47" t="s">
         <v>64</v>
@@ -9253,7 +9253,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="8">
-        <v>8.5999999999999993E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="P13" s="47" t="s">
         <v>65</v>
@@ -9302,7 +9302,7 @@
         <v>67</v>
       </c>
       <c r="Q16" s="48">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
@@ -12409,8 +12409,8 @@
   </sheetPr>
   <dimension ref="A1:R157"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12454,7 +12454,7 @@
         <v>56</v>
       </c>
       <c r="R2" s="48">
-        <v>0.34300000000000003</v>
+        <v>0.36299999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
@@ -12465,7 +12465,7 @@
         <v>57</v>
       </c>
       <c r="R3" s="48">
-        <v>8.5999999999999993E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
@@ -12529,7 +12529,7 @@
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="7">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>33</v>
@@ -12546,7 +12546,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="8">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>0</v>
@@ -12563,7 +12563,7 @@
         <v>34</v>
       </c>
       <c r="C12" s="7">
-        <v>0.34300000000000003</v>
+        <v>0.36299999999999999</v>
       </c>
       <c r="Q12" s="47" t="s">
         <v>64</v>
@@ -12577,7 +12577,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="8">
-        <v>8.5999999999999993E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="Q13" s="47" t="s">
         <v>65</v>
@@ -12628,7 +12628,7 @@
         <v>67</v>
       </c>
       <c r="R16" s="48">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
